--- a/util/listadoEstudiantes1.xlsx
+++ b/util/listadoEstudiantes1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nombres</t>
   </si>
@@ -25,73 +25,28 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Jose David</t>
-  </si>
-  <si>
-    <t>Castillo Lainez</t>
-  </si>
-  <si>
-    <t>0801-1999-03245</t>
-  </si>
-  <si>
-    <t>correo5unah+estu1@gmail.com</t>
-  </si>
-  <si>
-    <t>Toro Andres Salgado Campos</t>
-  </si>
-  <si>
-    <t>Salgado Campos</t>
-  </si>
-  <si>
-    <t>0818-2000-0003</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi4@gmail.com</t>
-  </si>
-  <si>
-    <t>Juan Andres Salgado Campos</t>
-  </si>
-  <si>
-    <t>0818-2000-0002</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi3@gmail.com</t>
-  </si>
-  <si>
-    <t>Miguel Andres Salgado Campos</t>
-  </si>
-  <si>
-    <t>0818-2000-0001</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi2@gmail.com</t>
-  </si>
-  <si>
-    <t>Nano Andres Salgado Campos</t>
-  </si>
-  <si>
-    <t>0818-2000-0006</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi7@gmail.com</t>
-  </si>
-  <si>
-    <t>Jorgue Soto Salgado Campos</t>
-  </si>
-  <si>
-    <t>0818-2000-0010</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi11@gmail.com</t>
-  </si>
-  <si>
-    <t>Gerardo Andres Salgado Campos</t>
-  </si>
-  <si>
-    <t>0818-2000-0011</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi12@gmail.com</t>
+    <t>Maria Alejandra</t>
+  </si>
+  <si>
+    <t>Aguilar Aguilar</t>
+  </si>
+  <si>
+    <t>0818-2004-0003</t>
+  </si>
+  <si>
+    <t>correo5unah+aspi130@gmail.com</t>
+  </si>
+  <si>
+    <t>Franciso Lisandro</t>
+  </si>
+  <si>
+    <t>Martinez Noriega</t>
+  </si>
+  <si>
+    <t>0818-2006-0001</t>
+  </si>
+  <si>
+    <t>correo5unah+aspi110@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -468,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="30" customWidth="1"/>
@@ -516,76 +471,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/util/listadoEstudiantes1.xlsx
+++ b/util/listadoEstudiantes1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>Nombres</t>
   </si>
@@ -19,34 +19,79 @@
     <t>Apellidos</t>
   </si>
   <si>
-    <t>Identidad</t>
+    <t>Numero de Cuenta</t>
   </si>
   <si>
     <t>Correo</t>
   </si>
   <si>
-    <t>Maria Alejandra</t>
-  </si>
-  <si>
-    <t>Aguilar Aguilar</t>
-  </si>
-  <si>
-    <t>0818-2004-0003</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi130@gmail.com</t>
-  </si>
-  <si>
-    <t>Franciso Lisandro</t>
-  </si>
-  <si>
-    <t>Martinez Noriega</t>
-  </si>
-  <si>
-    <t>0818-2006-0001</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi110@gmail.com</t>
+    <t>Jose David</t>
+  </si>
+  <si>
+    <t>Castillo Lainez</t>
+  </si>
+  <si>
+    <t>2020100100</t>
+  </si>
+  <si>
+    <t>correo5unah+estu1@gmail.com</t>
+  </si>
+  <si>
+    <t>Toro Andres Salgado Campos</t>
+  </si>
+  <si>
+    <t>Salgado Campos</t>
+  </si>
+  <si>
+    <t>2023100002</t>
+  </si>
+  <si>
+    <t>correo5unah+aspi4@gmail.com</t>
+  </si>
+  <si>
+    <t>Juan Andres Salgado Campos</t>
+  </si>
+  <si>
+    <t>2023100003</t>
+  </si>
+  <si>
+    <t>correo5unah+aspi3@gmail.com</t>
+  </si>
+  <si>
+    <t>Miguel Andres Salgado Campos</t>
+  </si>
+  <si>
+    <t>2023100004</t>
+  </si>
+  <si>
+    <t>correo5unah+aspi2@gmail.com</t>
+  </si>
+  <si>
+    <t>Nano Andres Salgado Campos</t>
+  </si>
+  <si>
+    <t>2023100005</t>
+  </si>
+  <si>
+    <t>correo5unah+aspi7@gmail.com</t>
+  </si>
+  <si>
+    <t>Jorgue Soto Salgado Campos</t>
+  </si>
+  <si>
+    <t>2023100006</t>
+  </si>
+  <si>
+    <t>correo5unah+aspi11@gmail.com</t>
+  </si>
+  <si>
+    <t>Gerardo Andres Salgado Campos</t>
+  </si>
+  <si>
+    <t>2023100007</t>
+  </si>
+  <si>
+    <t>correo5unah+aspi12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -423,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="30" customWidth="1"/>
@@ -471,6 +516,76 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/util/listadoEstudiantes1.xlsx
+++ b/util/listadoEstudiantes1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Nombres</t>
   </si>
@@ -25,73 +25,28 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Jose David</t>
-  </si>
-  <si>
-    <t>Castillo Lainez</t>
-  </si>
-  <si>
-    <t>2020100100</t>
-  </si>
-  <si>
-    <t>correo5unah+estu1@gmail.com</t>
-  </si>
-  <si>
-    <t>Toro Andres Salgado Campos</t>
-  </si>
-  <si>
-    <t>Salgado Campos</t>
+    <t>Maria Alejandra</t>
+  </si>
+  <si>
+    <t>Aguilar Aguilar</t>
+  </si>
+  <si>
+    <t>2023100001</t>
+  </si>
+  <si>
+    <t>correo5unah+aspi130@gmail.com</t>
+  </si>
+  <si>
+    <t>Franciso Lisandro</t>
+  </si>
+  <si>
+    <t>Martinez Noriega</t>
   </si>
   <si>
     <t>2023100002</t>
   </si>
   <si>
-    <t>correo5unah+aspi4@gmail.com</t>
-  </si>
-  <si>
-    <t>Juan Andres Salgado Campos</t>
-  </si>
-  <si>
-    <t>2023100003</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi3@gmail.com</t>
-  </si>
-  <si>
-    <t>Miguel Andres Salgado Campos</t>
-  </si>
-  <si>
-    <t>2023100004</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi2@gmail.com</t>
-  </si>
-  <si>
-    <t>Nano Andres Salgado Campos</t>
-  </si>
-  <si>
-    <t>2023100005</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi7@gmail.com</t>
-  </si>
-  <si>
-    <t>Jorgue Soto Salgado Campos</t>
-  </si>
-  <si>
-    <t>2023100006</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi11@gmail.com</t>
-  </si>
-  <si>
-    <t>Gerardo Andres Salgado Campos</t>
-  </si>
-  <si>
-    <t>2023100007</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi12@gmail.com</t>
+    <t>correo5unah+aspi110@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -468,7 +423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="30" customWidth="1"/>
@@ -516,76 +471,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/util/listadoEstudiantes1.xlsx
+++ b/util/listadoEstudiantes1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Nombres</t>
   </si>
@@ -25,28 +25,25 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Maria Alejandra</t>
-  </si>
-  <si>
-    <t>Aguilar Aguilar</t>
-  </si>
-  <si>
-    <t>2023100001</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi130@gmail.com</t>
-  </si>
-  <si>
-    <t>Franciso Lisandro</t>
-  </si>
-  <si>
-    <t>Martinez Noriega</t>
-  </si>
-  <si>
-    <t>2023100002</t>
-  </si>
-  <si>
-    <t>correo5unah+aspi110@gmail.com</t>
+    <t>Paulette Alejandra</t>
+  </si>
+  <si>
+    <t>Martinez Chavez</t>
+  </si>
+  <si>
+    <t>2023100004</t>
+  </si>
+  <si>
+    <t>correo5unah@gmail.com</t>
+  </si>
+  <si>
+    <t>Nicolas Rigoberto</t>
+  </si>
+  <si>
+    <t>Jackson Fernandez</t>
+  </si>
+  <si>
+    <t>2023100006</t>
   </si>
 </sst>
 </file>
@@ -468,7 +465,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/util/listadoEstudiantes1.xlsx
+++ b/util/listadoEstudiantes1.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nombres</t>
   </si>
@@ -25,25 +25,16 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Paulette Alejandra</t>
-  </si>
-  <si>
-    <t>Martinez Chavez</t>
-  </si>
-  <si>
-    <t>2023100004</t>
+    <t>Victor Darwin</t>
+  </si>
+  <si>
+    <t>Licona Suarez</t>
+  </si>
+  <si>
+    <t>2023100008</t>
   </si>
   <si>
     <t>correo5unah@gmail.com</t>
-  </si>
-  <si>
-    <t>Nicolas Rigoberto</t>
-  </si>
-  <si>
-    <t>Jackson Fernandez</t>
-  </si>
-  <si>
-    <t>2023100006</t>
   </si>
 </sst>
 </file>
@@ -420,7 +411,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="30" customWidth="1"/>
@@ -454,20 +445,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
